--- a/fuentes/contenidos/grado11/guion04/SolicitudGrafica_CN_11_04_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion04/SolicitudGrafica_CN_11_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos E\Aula Planeta\Autor\Física\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos E\Aula Planeta\Autor\Física\CN_11_04_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
   <si>
     <t>Fecha:</t>
   </si>
@@ -590,9 +590,6 @@
     <t>Trabajar un video</t>
   </si>
   <si>
-    <t>Miguel Aljure</t>
-  </si>
-  <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
   </si>
   <si>
     <t>Refracción de una onda sonora</t>
-  </si>
-  <si>
-    <t>Hacer una imagen como la de arriba. Es importante que en la imagen que se haga, los grados en verdad sean los que se ponen.</t>
   </si>
   <si>
     <t>Onda transversal</t>
@@ -701,6 +695,21 @@
   </si>
   <si>
     <t>CN_11_04_CO</t>
+  </si>
+  <si>
+    <t>Hacer una imagen como la de arriba. Es importante que en la imagen que se haga, los grados en verdad sean los que se ponen. Hacer el decimal con coma y no con punto.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4f/Refracci%C3%B3n_y_reflexi%C3%B3n.svg/600px-Refracci%C3%B3n_y_reflexi%C3%B3n.svg.png</t>
+  </si>
+  <si>
+    <t>Ilustrar. Escribir “Reflexión total” en vez de “Reflexión interna total”.</t>
+  </si>
+  <si>
+    <t>Reflexión total</t>
+  </si>
+  <si>
+    <t>Diana García</t>
   </si>
 </sst>
 </file>
@@ -1980,19 +1989,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>196362</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>471146</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1866900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>473608</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1666564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2005,8 +2014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16478250" y="12706350"/>
-          <a:ext cx="3271496" cy="1771650"/>
+          <a:off x="16617462" y="26995315"/>
+          <a:ext cx="4011046" cy="1493649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,19 +2027,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>321208</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1552264</xdr:rowOff>
+      <xdr:colOff>326005</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2327327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2043,8 +2052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16426962" y="23387538"/>
-          <a:ext cx="3999323" cy="1493649"/>
+          <a:off x="16573500" y="31165800"/>
+          <a:ext cx="3907405" cy="2060627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2056,19 +2065,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>173605</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2060627</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>644936</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1996593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2081,8 +2090,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16383000" y="25087385"/>
-          <a:ext cx="3895682" cy="2060627"/>
+          <a:off x="16687800" y="16802100"/>
+          <a:ext cx="3273836" cy="1767993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2142910</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2003837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16649700" y="36537900"/>
+          <a:ext cx="1914310" cy="1813337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,56 +2142,18 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>451460</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1301602</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1415902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16459200" y="28232100"/>
-          <a:ext cx="4109060" cy="1225402"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1914310</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1822862</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2157,8 +2166,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16383000" y="31546800"/>
-          <a:ext cx="1914310" cy="1822862"/>
+          <a:off x="16497300" y="33299400"/>
+          <a:ext cx="4109060" cy="1225402"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2885,9 +2894,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2997,7 +3006,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -3005,7 +3014,7 @@
         <v>55</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="38"/>
@@ -3029,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -3084,7 +3093,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3180,14 +3189,14 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>153</v>
@@ -3209,10 +3218,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="64" t="s">
         <v>192</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>193</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -3225,14 +3234,14 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>153</v>
@@ -3254,10 +3263,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
@@ -3270,14 +3279,14 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>153</v>
@@ -3299,30 +3308,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="64" t="s">
         <v>197</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>198</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="327.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>153</v>
@@ -3344,30 +3353,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>153</v>
@@ -3389,30 +3398,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>153</v>
@@ -3434,23 +3443,23 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="114" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="171" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3479,30 +3488,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K16" s="68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>153</v>
@@ -3524,30 +3533,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="66" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>153</v>
@@ -3569,30 +3578,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>153</v>
@@ -3614,30 +3623,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>153</v>
@@ -3659,30 +3668,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>153</v>
@@ -3704,30 +3713,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K21" s="66" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="337.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG13</v>
       </c>
-      <c r="B22" s="62">
-        <v>224171713</v>
+      <c r="B22" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="63" t="s">
         <v>153</v>
@@ -3749,46 +3758,56 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="K22" s="69" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="62">
+        <v>224171713</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_11_04_CO_IMG14_small</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_04_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>219</v>
+      </c>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
